--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H2">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.810423666666666</v>
+        <v>3.558321333333333</v>
       </c>
       <c r="N2">
-        <v>20.431271</v>
+        <v>10.674964</v>
       </c>
       <c r="O2">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="P2">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="Q2">
-        <v>4.530559429589666</v>
+        <v>2.436764543423111</v>
       </c>
       <c r="R2">
-        <v>40.775034866307</v>
+        <v>21.93088089080799</v>
       </c>
       <c r="S2">
-        <v>0.1812154013759043</v>
+        <v>0.06894858208022266</v>
       </c>
       <c r="T2">
-        <v>0.1812154013759043</v>
+        <v>0.06894858208022266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H3">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I3">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J3">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.383140666666666</v>
+        <v>5.383140666666667</v>
       </c>
       <c r="N3">
         <v>16.149422</v>
       </c>
       <c r="O3">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="P3">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="Q3">
-        <v>3.581075113952666</v>
+        <v>3.686414204898222</v>
       </c>
       <c r="R3">
-        <v>32.22967602557399</v>
+        <v>33.177727844084</v>
       </c>
       <c r="S3">
-        <v>0.1432374906934991</v>
+        <v>0.1043075881394217</v>
       </c>
       <c r="T3">
-        <v>0.1432374906934991</v>
+        <v>0.1043075881394217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H4">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I4">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J4">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.793123666666667</v>
+        <v>2.764910333333333</v>
       </c>
       <c r="N4">
-        <v>5.379371</v>
+        <v>8.294730999999999</v>
       </c>
       <c r="O4">
-        <v>0.1282021638479865</v>
+        <v>0.2361884838961071</v>
       </c>
       <c r="P4">
-        <v>0.1282021638479865</v>
+        <v>0.236188483896107</v>
       </c>
       <c r="Q4">
-        <v>1.192855794889667</v>
+        <v>1.893430872275777</v>
       </c>
       <c r="R4">
-        <v>10.735702154007</v>
+        <v>17.04087785048199</v>
       </c>
       <c r="S4">
-        <v>0.04771239512778718</v>
+        <v>0.05357488242460277</v>
       </c>
       <c r="T4">
-        <v>0.04771239512778718</v>
+        <v>0.05357488242460277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.983764</v>
       </c>
       <c r="I5">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J5">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.810423666666666</v>
+        <v>3.558321333333333</v>
       </c>
       <c r="N5">
-        <v>20.431271</v>
+        <v>10.674964</v>
       </c>
       <c r="O5">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="P5">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="Q5">
-        <v>2.233283209338222</v>
+        <v>1.166849476055111</v>
       </c>
       <c r="R5">
-        <v>20.099548884044</v>
+        <v>10.501645284496</v>
       </c>
       <c r="S5">
-        <v>0.08932788973545103</v>
+        <v>0.03301616362245351</v>
       </c>
       <c r="T5">
-        <v>0.089327889735451</v>
+        <v>0.0330161636224535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.983764</v>
       </c>
       <c r="I6">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J6">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.383140666666666</v>
+        <v>5.383140666666667</v>
       </c>
       <c r="N6">
         <v>16.149422</v>
       </c>
       <c r="O6">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="P6">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="Q6">
         <v>1.765246664934222</v>
@@ -818,10 +818,10 @@
         <v>15.887219984408</v>
       </c>
       <c r="S6">
-        <v>0.07060714860603957</v>
+        <v>0.04994789295402311</v>
       </c>
       <c r="T6">
-        <v>0.07060714860603956</v>
+        <v>0.04994789295402311</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.983764</v>
       </c>
       <c r="I7">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J7">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.793123666666667</v>
+        <v>2.764910333333333</v>
       </c>
       <c r="N7">
-        <v>5.379371</v>
+        <v>8.294730999999999</v>
       </c>
       <c r="O7">
-        <v>0.1282021638479865</v>
+        <v>0.2361884838961071</v>
       </c>
       <c r="P7">
-        <v>0.1282021638479865</v>
+        <v>0.236188483896107</v>
       </c>
       <c r="Q7">
-        <v>0.5880035036048888</v>
+        <v>0.9066730830537777</v>
       </c>
       <c r="R7">
-        <v>5.292031532444</v>
+        <v>8.160057747483998</v>
       </c>
       <c r="S7">
-        <v>0.02351923478153087</v>
+        <v>0.02565443742013906</v>
       </c>
       <c r="T7">
-        <v>0.02351923478153086</v>
+        <v>0.02565443742013906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H8">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I8">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J8">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.810423666666666</v>
+        <v>3.558321333333333</v>
       </c>
       <c r="N8">
-        <v>20.431271</v>
+        <v>10.674964</v>
       </c>
       <c r="O8">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="P8">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="Q8">
-        <v>5.409671617895221</v>
+        <v>7.139026880067555</v>
       </c>
       <c r="R8">
-        <v>48.68704456105699</v>
+        <v>64.251241920608</v>
       </c>
       <c r="S8">
-        <v>0.2163785353186521</v>
+        <v>0.2019997303973351</v>
       </c>
       <c r="T8">
-        <v>0.2163785353186521</v>
+        <v>0.2019997303973351</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H9">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I9">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J9">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.383140666666666</v>
+        <v>5.383140666666667</v>
       </c>
       <c r="N9">
         <v>16.149422</v>
       </c>
       <c r="O9">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="P9">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="Q9">
-        <v>4.275948855008221</v>
+        <v>10.80014487688711</v>
       </c>
       <c r="R9">
-        <v>38.48353969507399</v>
+        <v>97.20130389198401</v>
       </c>
       <c r="S9">
-        <v>0.1710313704224675</v>
+        <v>0.3055915589104368</v>
       </c>
       <c r="T9">
-        <v>0.1710313704224675</v>
+        <v>0.3055915589104369</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H10">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I10">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J10">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.793123666666667</v>
+        <v>2.764910333333333</v>
       </c>
       <c r="N10">
-        <v>5.379371</v>
+        <v>8.294730999999999</v>
       </c>
       <c r="O10">
-        <v>0.1282021638479865</v>
+        <v>0.2361884838961071</v>
       </c>
       <c r="P10">
-        <v>0.1282021638479865</v>
+        <v>0.236188483896107</v>
       </c>
       <c r="Q10">
-        <v>1.424318174861889</v>
+        <v>5.547213795936888</v>
       </c>
       <c r="R10">
-        <v>12.818863573757</v>
+        <v>49.924924163432</v>
       </c>
       <c r="S10">
-        <v>0.05697053393866847</v>
+        <v>0.1569591640513652</v>
       </c>
       <c r="T10">
-        <v>0.05697053393866847</v>
+        <v>0.1569591640513652</v>
       </c>
     </row>
   </sheetData>
